--- a/data-raw/counts_football/counts_football.xlsx
+++ b/data-raw/counts_football/counts_football.xlsx
@@ -400,7 +400,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3">
@@ -419,7 +419,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4">
@@ -438,7 +438,7 @@
         <v>3</v>
       </c>
       <c r="E4">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
@@ -457,7 +457,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6">
@@ -476,7 +476,7 @@
         <v>5</v>
       </c>
       <c r="E6">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
@@ -495,7 +495,7 @@
         <v>6</v>
       </c>
       <c r="E7">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8">
@@ -514,7 +514,7 @@
         <v>7</v>
       </c>
       <c r="E8">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         <v>8</v>
       </c>
       <c r="E9">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10">
@@ -552,7 +552,7 @@
         <v>9</v>
       </c>
       <c r="E10">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11">
@@ -571,7 +571,7 @@
         <v>10</v>
       </c>
       <c r="E11">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12">
@@ -590,7 +590,7 @@
         <v>11</v>
       </c>
       <c r="E12">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13">
@@ -609,7 +609,7 @@
         <v>12</v>
       </c>
       <c r="E13">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14">
@@ -685,7 +685,7 @@
         <v>16</v>
       </c>
       <c r="E17">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18">
@@ -704,7 +704,7 @@
         <v>17</v>
       </c>
       <c r="E18">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19">
@@ -723,7 +723,7 @@
         <v>18</v>
       </c>
       <c r="E19">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20">
@@ -742,7 +742,7 @@
         <v>19</v>
       </c>
       <c r="E20">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21">
@@ -780,7 +780,7 @@
         <v>21</v>
       </c>
       <c r="E22">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23">
@@ -799,7 +799,7 @@
         <v>22</v>
       </c>
       <c r="E23">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24">
@@ -837,7 +837,7 @@
         <v>24</v>
       </c>
       <c r="E25">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26">
@@ -856,7 +856,7 @@
         <v>25</v>
       </c>
       <c r="E26">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27">
@@ -875,7 +875,7 @@
         <v>26</v>
       </c>
       <c r="E27">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28">
@@ -894,7 +894,7 @@
         <v>27</v>
       </c>
       <c r="E28">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29">
@@ -932,7 +932,7 @@
         <v>29</v>
       </c>
       <c r="E30">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31">
@@ -951,7 +951,7 @@
         <v>30</v>
       </c>
       <c r="E31">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32">
@@ -970,7 +970,7 @@
         <v>31</v>
       </c>
       <c r="E32">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33">
@@ -989,7 +989,7 @@
         <v>32</v>
       </c>
       <c r="E33">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34">
@@ -1008,7 +1008,7 @@
         <v>33</v>
       </c>
       <c r="E34">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35">
@@ -1027,7 +1027,7 @@
         <v>34</v>
       </c>
       <c r="E35">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36">
@@ -1065,7 +1065,7 @@
         <v>36</v>
       </c>
       <c r="E37">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38">
@@ -1122,7 +1122,7 @@
         <v>39</v>
       </c>
       <c r="E40">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41">
@@ -1160,7 +1160,7 @@
         <v>41</v>
       </c>
       <c r="E42">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43">
@@ -1179,7 +1179,7 @@
         <v>42</v>
       </c>
       <c r="E43">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44">
@@ -1198,7 +1198,7 @@
         <v>43</v>
       </c>
       <c r="E44">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45">
@@ -1236,7 +1236,7 @@
         <v>45</v>
       </c>
       <c r="E46">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="47">
@@ -1312,7 +1312,7 @@
         <v>49</v>
       </c>
       <c r="E50">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51">
@@ -1331,7 +1331,7 @@
         <v>50</v>
       </c>
       <c r="E51">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52">
@@ -1350,7 +1350,7 @@
         <v>51</v>
       </c>
       <c r="E52">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53">
@@ -1388,7 +1388,7 @@
         <v>53</v>
       </c>
       <c r="E54">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="55">
@@ -1407,7 +1407,7 @@
         <v>54</v>
       </c>
       <c r="E55">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="56">
@@ -1426,7 +1426,7 @@
         <v>55</v>
       </c>
       <c r="E56">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="57">
@@ -1445,7 +1445,7 @@
         <v>56</v>
       </c>
       <c r="E57">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="58">
@@ -1464,7 +1464,7 @@
         <v>57</v>
       </c>
       <c r="E58">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="59">
@@ -1502,7 +1502,7 @@
         <v>59</v>
       </c>
       <c r="E60">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="61">
@@ -1521,7 +1521,7 @@
         <v>60</v>
       </c>
       <c r="E61">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62">
@@ -1540,7 +1540,7 @@
         <v>61</v>
       </c>
       <c r="E62">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63">
@@ -1597,7 +1597,7 @@
         <v>64</v>
       </c>
       <c r="E65">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66">
@@ -1635,7 +1635,7 @@
         <v>66</v>
       </c>
       <c r="E67">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68">
@@ -1673,7 +1673,7 @@
         <v>68</v>
       </c>
       <c r="E69">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="70">
@@ -1692,7 +1692,7 @@
         <v>69</v>
       </c>
       <c r="E70">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="71">
@@ -1711,7 +1711,7 @@
         <v>70</v>
       </c>
       <c r="E71">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72">
@@ -1730,7 +1730,7 @@
         <v>71</v>
       </c>
       <c r="E72">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="73">
@@ -1749,7 +1749,7 @@
         <v>72</v>
       </c>
       <c r="E73">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="74">
@@ -1768,7 +1768,7 @@
         <v>73</v>
       </c>
       <c r="E74">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="75">
@@ -1806,7 +1806,7 @@
         <v>75</v>
       </c>
       <c r="E76">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="77">
@@ -1825,7 +1825,7 @@
         <v>76</v>
       </c>
       <c r="E77">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="78">
@@ -1863,7 +1863,7 @@
         <v>78</v>
       </c>
       <c r="E79">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="80">
@@ -1882,7 +1882,7 @@
         <v>79</v>
       </c>
       <c r="E80">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="81">
@@ -1958,7 +1958,7 @@
         <v>83</v>
       </c>
       <c r="E84">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="85">
@@ -1977,7 +1977,7 @@
         <v>84</v>
       </c>
       <c r="E85">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="86">
@@ -1996,7 +1996,7 @@
         <v>85</v>
       </c>
       <c r="E86">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="87">
@@ -2015,7 +2015,7 @@
         <v>86</v>
       </c>
       <c r="E87">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="88">
@@ -2034,7 +2034,7 @@
         <v>87</v>
       </c>
       <c r="E88">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="89">
@@ -2053,7 +2053,7 @@
         <v>88</v>
       </c>
       <c r="E89">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="90">
@@ -2091,7 +2091,7 @@
         <v>90</v>
       </c>
       <c r="E91">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="92">
@@ -2110,7 +2110,7 @@
         <v>91</v>
       </c>
       <c r="E92">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="93">
@@ -2129,7 +2129,7 @@
         <v>92</v>
       </c>
       <c r="E93">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="94">
@@ -2148,7 +2148,7 @@
         <v>93</v>
       </c>
       <c r="E94">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="95">
@@ -2167,7 +2167,7 @@
         <v>94</v>
       </c>
       <c r="E95">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="96">
@@ -2186,7 +2186,7 @@
         <v>95</v>
       </c>
       <c r="E96">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="97">
@@ -2243,7 +2243,7 @@
         <v>98</v>
       </c>
       <c r="E99">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="100">
@@ -2262,7 +2262,7 @@
         <v>99</v>
       </c>
       <c r="E100">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="101">
@@ -2281,7 +2281,7 @@
         <v>100</v>
       </c>
       <c r="E101">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="102">
@@ -2319,7 +2319,7 @@
         <v>102</v>
       </c>
       <c r="E103">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="104">
@@ -2338,7 +2338,7 @@
         <v>103</v>
       </c>
       <c r="E104">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="105">
@@ -2357,7 +2357,7 @@
         <v>104</v>
       </c>
       <c r="E105">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="106">
@@ -2376,7 +2376,7 @@
         <v>105</v>
       </c>
       <c r="E106">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="107">
@@ -2395,7 +2395,7 @@
         <v>106</v>
       </c>
       <c r="E107">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="108">
@@ -2452,7 +2452,7 @@
         <v>109</v>
       </c>
       <c r="E110">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="111">
@@ -2471,7 +2471,7 @@
         <v>110</v>
       </c>
       <c r="E111">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="112">
@@ -2490,7 +2490,7 @@
         <v>111</v>
       </c>
       <c r="E112">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="113">
@@ -2509,7 +2509,7 @@
         <v>112</v>
       </c>
       <c r="E113">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="114">
@@ -2528,7 +2528,7 @@
         <v>113</v>
       </c>
       <c r="E114">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="115">
@@ -2547,7 +2547,7 @@
         <v>114</v>
       </c>
       <c r="E115">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="116">
@@ -2566,7 +2566,7 @@
         <v>115</v>
       </c>
       <c r="E116">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="117">
@@ -2585,7 +2585,7 @@
         <v>116</v>
       </c>
       <c r="E117">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="118">
@@ -2604,7 +2604,7 @@
         <v>117</v>
       </c>
       <c r="E118">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="119">
@@ -2642,7 +2642,7 @@
         <v>119</v>
       </c>
       <c r="E120">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="121">
@@ -2661,7 +2661,7 @@
         <v>120</v>
       </c>
       <c r="E121">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="122">
@@ -2680,7 +2680,7 @@
         <v>121</v>
       </c>
       <c r="E122">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="123">
@@ -2756,7 +2756,7 @@
         <v>125</v>
       </c>
       <c r="E126">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="127">
@@ -2794,7 +2794,7 @@
         <v>127</v>
       </c>
       <c r="E128">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="129">
@@ -2813,7 +2813,7 @@
         <v>128</v>
       </c>
       <c r="E129">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="130">
@@ -2832,7 +2832,7 @@
         <v>129</v>
       </c>
       <c r="E130">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="131">
@@ -2889,7 +2889,7 @@
         <v>132</v>
       </c>
       <c r="E133">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="134">
@@ -2908,7 +2908,7 @@
         <v>133</v>
       </c>
       <c r="E134">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="135">
@@ -2927,7 +2927,7 @@
         <v>134</v>
       </c>
       <c r="E135">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="136">
@@ -2965,7 +2965,7 @@
         <v>136</v>
       </c>
       <c r="E137">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="138">
@@ -2984,7 +2984,7 @@
         <v>137</v>
       </c>
       <c r="E138">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="139">
@@ -3003,7 +3003,7 @@
         <v>138</v>
       </c>
       <c r="E139">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="140">
@@ -3041,7 +3041,7 @@
         <v>140</v>
       </c>
       <c r="E141">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="142">
@@ -3060,7 +3060,7 @@
         <v>141</v>
       </c>
       <c r="E142">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="143">
@@ -3079,7 +3079,7 @@
         <v>142</v>
       </c>
       <c r="E143">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="144">
@@ -3098,7 +3098,7 @@
         <v>143</v>
       </c>
       <c r="E144">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="145">
@@ -3117,7 +3117,7 @@
         <v>144</v>
       </c>
       <c r="E145">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="146">
@@ -3136,7 +3136,7 @@
         <v>145</v>
       </c>
       <c r="E146">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="147">
@@ -3155,7 +3155,7 @@
         <v>146</v>
       </c>
       <c r="E147">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="148">
@@ -3212,7 +3212,7 @@
         <v>149</v>
       </c>
       <c r="E150">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="151">
@@ -3231,7 +3231,7 @@
         <v>150</v>
       </c>
       <c r="E151">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="152">
@@ -3250,7 +3250,7 @@
         <v>151</v>
       </c>
       <c r="E152">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="153">
@@ -3269,7 +3269,7 @@
         <v>152</v>
       </c>
       <c r="E153">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="154">
@@ -3288,7 +3288,7 @@
         <v>153</v>
       </c>
       <c r="E154">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="155">
@@ -3307,7 +3307,7 @@
         <v>154</v>
       </c>
       <c r="E155">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="156">
@@ -3345,7 +3345,7 @@
         <v>156</v>
       </c>
       <c r="E157">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="158">
@@ -3364,7 +3364,7 @@
         <v>157</v>
       </c>
       <c r="E158">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="159">
@@ -3402,7 +3402,7 @@
         <v>159</v>
       </c>
       <c r="E160">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="161">
@@ -3440,7 +3440,7 @@
         <v>161</v>
       </c>
       <c r="E162">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="163">
@@ -3459,7 +3459,7 @@
         <v>162</v>
       </c>
       <c r="E163">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="164">
@@ -3478,7 +3478,7 @@
         <v>163</v>
       </c>
       <c r="E164">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="165">
@@ -3535,7 +3535,7 @@
         <v>166</v>
       </c>
       <c r="E167">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="168">
@@ -3554,7 +3554,7 @@
         <v>167</v>
       </c>
       <c r="E168">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="169">
@@ -3573,7 +3573,7 @@
         <v>168</v>
       </c>
       <c r="E169">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="170">
@@ -3592,7 +3592,7 @@
         <v>169</v>
       </c>
       <c r="E170">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="171">
@@ -3611,7 +3611,7 @@
         <v>170</v>
       </c>
       <c r="E171">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="172">
@@ -3649,7 +3649,7 @@
         <v>172</v>
       </c>
       <c r="E173">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="174">
@@ -3668,7 +3668,7 @@
         <v>173</v>
       </c>
       <c r="E174">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="175">
@@ -3687,7 +3687,7 @@
         <v>174</v>
       </c>
       <c r="E175">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="176">
@@ -3706,7 +3706,7 @@
         <v>175</v>
       </c>
       <c r="E176">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="177">
@@ -3725,7 +3725,7 @@
         <v>176</v>
       </c>
       <c r="E177">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="178">
@@ -3744,7 +3744,7 @@
         <v>177</v>
       </c>
       <c r="E178">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="179">
@@ -3763,7 +3763,7 @@
         <v>178</v>
       </c>
       <c r="E179">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="180">
@@ -3820,7 +3820,7 @@
         <v>181</v>
       </c>
       <c r="E182">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="183">
@@ -3858,7 +3858,7 @@
         <v>183</v>
       </c>
       <c r="E184">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="185">
@@ -3877,7 +3877,7 @@
         <v>184</v>
       </c>
       <c r="E185">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="186">
@@ -3896,7 +3896,7 @@
         <v>185</v>
       </c>
       <c r="E186">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="187">
@@ -3915,7 +3915,7 @@
         <v>186</v>
       </c>
       <c r="E187">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="188">
@@ -3934,7 +3934,7 @@
         <v>187</v>
       </c>
       <c r="E188">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="189">
@@ -3953,7 +3953,7 @@
         <v>188</v>
       </c>
       <c r="E189">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="190">
@@ -3972,7 +3972,7 @@
         <v>189</v>
       </c>
       <c r="E190">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="191">
@@ -4029,7 +4029,7 @@
         <v>192</v>
       </c>
       <c r="E193">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="194">
@@ -4048,7 +4048,7 @@
         <v>193</v>
       </c>
       <c r="E194">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="195">
@@ -4086,7 +4086,7 @@
         <v>195</v>
       </c>
       <c r="E196">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="197">
@@ -4124,7 +4124,7 @@
         <v>197</v>
       </c>
       <c r="E198">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="199">
@@ -4143,7 +4143,7 @@
         <v>198</v>
       </c>
       <c r="E199">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="200">
@@ -4162,7 +4162,7 @@
         <v>199</v>
       </c>
       <c r="E200">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="201">
@@ -4181,7 +4181,7 @@
         <v>200</v>
       </c>
       <c r="E201">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="202">
@@ -4200,7 +4200,7 @@
         <v>201</v>
       </c>
       <c r="E202">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="203">
@@ -4219,7 +4219,7 @@
         <v>202</v>
       </c>
       <c r="E203">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="204">
@@ -4257,7 +4257,7 @@
         <v>204</v>
       </c>
       <c r="E205">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="206">
@@ -4295,7 +4295,7 @@
         <v>206</v>
       </c>
       <c r="E207">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="208">
@@ -4314,7 +4314,7 @@
         <v>207</v>
       </c>
       <c r="E208">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="209">
@@ -4333,7 +4333,7 @@
         <v>208</v>
       </c>
       <c r="E209">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="210">
@@ -4352,7 +4352,7 @@
         <v>209</v>
       </c>
       <c r="E210">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="211">
@@ -4371,7 +4371,7 @@
         <v>210</v>
       </c>
       <c r="E211">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="212">
@@ -4390,7 +4390,7 @@
         <v>211</v>
       </c>
       <c r="E212">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="213">
@@ -4409,7 +4409,7 @@
         <v>212</v>
       </c>
       <c r="E213">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="214">
@@ -4428,7 +4428,7 @@
         <v>213</v>
       </c>
       <c r="E214">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="215">
@@ -4447,7 +4447,7 @@
         <v>214</v>
       </c>
       <c r="E215">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="216">
@@ -4466,7 +4466,7 @@
         <v>215</v>
       </c>
       <c r="E216">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="217">
@@ -4504,7 +4504,7 @@
         <v>217</v>
       </c>
       <c r="E218">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="219">
@@ -4523,7 +4523,7 @@
         <v>218</v>
       </c>
       <c r="E219">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="220">
@@ -4542,7 +4542,7 @@
         <v>219</v>
       </c>
       <c r="E220">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="221">
@@ -4561,7 +4561,7 @@
         <v>220</v>
       </c>
       <c r="E221">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="222">
@@ -4580,7 +4580,7 @@
         <v>221</v>
       </c>
       <c r="E222">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="223">
@@ -4599,7 +4599,7 @@
         <v>222</v>
       </c>
       <c r="E223">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="224">
@@ -4618,7 +4618,7 @@
         <v>223</v>
       </c>
       <c r="E224">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="225">
@@ -4637,7 +4637,7 @@
         <v>224</v>
       </c>
       <c r="E225">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="226">
@@ -4656,7 +4656,7 @@
         <v>225</v>
       </c>
       <c r="E226">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="227">
@@ -4675,7 +4675,7 @@
         <v>226</v>
       </c>
       <c r="E227">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="228">
@@ -4694,7 +4694,7 @@
         <v>227</v>
       </c>
       <c r="E228">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="229">
@@ -4713,7 +4713,7 @@
         <v>228</v>
       </c>
       <c r="E229">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="230">
@@ -4732,7 +4732,7 @@
         <v>229</v>
       </c>
       <c r="E230">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="231">
@@ -4751,7 +4751,7 @@
         <v>230</v>
       </c>
       <c r="E231">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="232">
@@ -4789,7 +4789,7 @@
         <v>232</v>
       </c>
       <c r="E233">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="234">
@@ -4808,7 +4808,7 @@
         <v>233</v>
       </c>
       <c r="E234">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="235">
@@ -4827,7 +4827,7 @@
         <v>234</v>
       </c>
       <c r="E235">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="236">
@@ -4846,7 +4846,7 @@
         <v>235</v>
       </c>
       <c r="E236">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="237">
@@ -4865,7 +4865,7 @@
         <v>236</v>
       </c>
       <c r="E237">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="238">
@@ -4884,7 +4884,7 @@
         <v>237</v>
       </c>
       <c r="E238">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="239">
@@ -4903,7 +4903,7 @@
         <v>238</v>
       </c>
       <c r="E239">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="240">
@@ -4922,7 +4922,7 @@
         <v>239</v>
       </c>
       <c r="E240">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="241">
@@ -4941,7 +4941,7 @@
         <v>240</v>
       </c>
       <c r="E241">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="242">
@@ -4998,7 +4998,7 @@
         <v>243</v>
       </c>
       <c r="E244">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="245">
@@ -5017,7 +5017,7 @@
         <v>244</v>
       </c>
       <c r="E245">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="246">
@@ -5036,7 +5036,7 @@
         <v>245</v>
       </c>
       <c r="E246">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="247">
@@ -5055,7 +5055,7 @@
         <v>246</v>
       </c>
       <c r="E247">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="248">
@@ -5074,7 +5074,7 @@
         <v>247</v>
       </c>
       <c r="E248">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="249">
@@ -5093,7 +5093,7 @@
         <v>248</v>
       </c>
       <c r="E249">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="250">
@@ -5112,7 +5112,7 @@
         <v>249</v>
       </c>
       <c r="E250">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="251">
@@ -5131,7 +5131,7 @@
         <v>250</v>
       </c>
       <c r="E251">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="252">
@@ -5150,7 +5150,7 @@
         <v>251</v>
       </c>
       <c r="E252">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="253">
@@ -5188,7 +5188,7 @@
         <v>253</v>
       </c>
       <c r="E254">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="255">
@@ -5207,7 +5207,7 @@
         <v>254</v>
       </c>
       <c r="E255">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="256">
@@ -5226,7 +5226,7 @@
         <v>255</v>
       </c>
       <c r="E256">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="257">
@@ -5264,7 +5264,7 @@
         <v>257</v>
       </c>
       <c r="E258">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="259">
@@ -5283,7 +5283,7 @@
         <v>258</v>
       </c>
       <c r="E259">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="260">
@@ -5302,7 +5302,7 @@
         <v>259</v>
       </c>
       <c r="E260">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="261">
@@ -5321,7 +5321,7 @@
         <v>260</v>
       </c>
       <c r="E261">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="262">
@@ -5340,7 +5340,7 @@
         <v>261</v>
       </c>
       <c r="E262">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="263">
@@ -5359,7 +5359,7 @@
         <v>262</v>
       </c>
       <c r="E263">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="264">
@@ -5378,7 +5378,7 @@
         <v>263</v>
       </c>
       <c r="E264">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="265">
@@ -5397,7 +5397,7 @@
         <v>264</v>
       </c>
       <c r="E265">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="266">
@@ -5454,7 +5454,7 @@
         <v>267</v>
       </c>
       <c r="E268">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="269">
@@ -5492,7 +5492,7 @@
         <v>269</v>
       </c>
       <c r="E270">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="271">
@@ -5511,7 +5511,7 @@
         <v>270</v>
       </c>
       <c r="E271">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="272">
@@ -5530,7 +5530,7 @@
         <v>271</v>
       </c>
       <c r="E272">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="273">
@@ -5549,7 +5549,7 @@
         <v>272</v>
       </c>
       <c r="E273">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="274">
@@ -5587,7 +5587,7 @@
         <v>274</v>
       </c>
       <c r="E275">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="276">
@@ -5606,7 +5606,7 @@
         <v>275</v>
       </c>
       <c r="E276">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="277">
@@ -5644,7 +5644,7 @@
         <v>277</v>
       </c>
       <c r="E278">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="279">
@@ -5682,7 +5682,7 @@
         <v>279</v>
       </c>
       <c r="E280">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="281">
@@ -5701,7 +5701,7 @@
         <v>280</v>
       </c>
       <c r="E281">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="282">
@@ -5739,7 +5739,7 @@
         <v>282</v>
       </c>
       <c r="E283">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="284">
@@ -5777,7 +5777,7 @@
         <v>284</v>
       </c>
       <c r="E285">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="286">
@@ -5796,7 +5796,7 @@
         <v>285</v>
       </c>
       <c r="E286">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="287">
@@ -5815,7 +5815,7 @@
         <v>286</v>
       </c>
       <c r="E287">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="288">
@@ -5834,7 +5834,7 @@
         <v>287</v>
       </c>
       <c r="E288">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="289">
@@ -5853,7 +5853,7 @@
         <v>288</v>
       </c>
       <c r="E289">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="290">
@@ -5872,7 +5872,7 @@
         <v>289</v>
       </c>
       <c r="E290">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="291">
@@ -5891,7 +5891,7 @@
         <v>290</v>
       </c>
       <c r="E291">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="292">
@@ -5948,7 +5948,7 @@
         <v>293</v>
       </c>
       <c r="E294">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="295">
@@ -5986,7 +5986,7 @@
         <v>295</v>
       </c>
       <c r="E296">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="297">
@@ -6005,7 +6005,7 @@
         <v>296</v>
       </c>
       <c r="E297">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="298">
@@ -6024,7 +6024,7 @@
         <v>297</v>
       </c>
       <c r="E298">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="299">
@@ -6043,7 +6043,7 @@
         <v>298</v>
       </c>
       <c r="E299">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="300">
@@ -6081,7 +6081,7 @@
         <v>300</v>
       </c>
       <c r="E301">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="302">
@@ -6100,7 +6100,7 @@
         <v>301</v>
       </c>
       <c r="E302">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="303">
@@ -6119,7 +6119,7 @@
         <v>302</v>
       </c>
       <c r="E303">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="304">
@@ -6157,7 +6157,7 @@
         <v>304</v>
       </c>
       <c r="E305">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="306">
@@ -6233,7 +6233,7 @@
         <v>308</v>
       </c>
       <c r="E309">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="310">
@@ -6271,7 +6271,7 @@
         <v>310</v>
       </c>
       <c r="E311">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="312">
@@ -6290,7 +6290,7 @@
         <v>311</v>
       </c>
       <c r="E312">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="313">
@@ -6309,7 +6309,7 @@
         <v>312</v>
       </c>
       <c r="E313">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="314">
@@ -6328,7 +6328,7 @@
         <v>313</v>
       </c>
       <c r="E314">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="315">
@@ -6366,7 +6366,7 @@
         <v>315</v>
       </c>
       <c r="E316">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="317">
@@ -6385,7 +6385,7 @@
         <v>316</v>
       </c>
       <c r="E317">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="318">
@@ -6404,7 +6404,7 @@
         <v>317</v>
       </c>
       <c r="E318">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="319">
@@ -6423,7 +6423,7 @@
         <v>318</v>
       </c>
       <c r="E319">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="320">
@@ -6442,7 +6442,7 @@
         <v>319</v>
       </c>
       <c r="E320">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="321">
@@ -6461,7 +6461,7 @@
         <v>320</v>
       </c>
       <c r="E321">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="322">
@@ -6499,7 +6499,7 @@
         <v>322</v>
       </c>
       <c r="E323">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="324">
@@ -6537,7 +6537,7 @@
         <v>324</v>
       </c>
       <c r="E325">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="326">
@@ -6556,7 +6556,7 @@
         <v>325</v>
       </c>
       <c r="E326">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="327">
@@ -6575,7 +6575,7 @@
         <v>326</v>
       </c>
       <c r="E327">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="328">
@@ -6594,7 +6594,7 @@
         <v>327</v>
       </c>
       <c r="E328">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="329">
@@ -6632,7 +6632,7 @@
         <v>329</v>
       </c>
       <c r="E330">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="331">
@@ -6689,7 +6689,7 @@
         <v>332</v>
       </c>
       <c r="E333">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="334">
@@ -6708,7 +6708,7 @@
         <v>333</v>
       </c>
       <c r="E334">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="335">
@@ -6727,7 +6727,7 @@
         <v>334</v>
       </c>
       <c r="E335">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="336">
@@ -6765,7 +6765,7 @@
         <v>336</v>
       </c>
       <c r="E337">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="338">
@@ -6784,7 +6784,7 @@
         <v>337</v>
       </c>
       <c r="E338">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="339">
@@ -6803,7 +6803,7 @@
         <v>338</v>
       </c>
       <c r="E339">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="340">
@@ -6822,7 +6822,7 @@
         <v>339</v>
       </c>
       <c r="E340">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="341">
@@ -6841,7 +6841,7 @@
         <v>340</v>
       </c>
       <c r="E341">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="342">
@@ -6860,7 +6860,7 @@
         <v>341</v>
       </c>
       <c r="E342">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="343">
@@ -6879,7 +6879,7 @@
         <v>342</v>
       </c>
       <c r="E343">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="344">
@@ -6917,7 +6917,7 @@
         <v>344</v>
       </c>
       <c r="E345">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="346">
@@ -6936,7 +6936,7 @@
         <v>345</v>
       </c>
       <c r="E346">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="347">
@@ -6955,7 +6955,7 @@
         <v>346</v>
       </c>
       <c r="E347">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="348">
@@ -7050,7 +7050,7 @@
         <v>351</v>
       </c>
       <c r="E352">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="353">
@@ -7069,7 +7069,7 @@
         <v>352</v>
       </c>
       <c r="E353">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="354">
@@ -7088,7 +7088,7 @@
         <v>353</v>
       </c>
       <c r="E354">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="355">
@@ -7126,7 +7126,7 @@
         <v>355</v>
       </c>
       <c r="E356">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="357">
@@ -7145,7 +7145,7 @@
         <v>356</v>
       </c>
       <c r="E357">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="358">
@@ -7164,7 +7164,7 @@
         <v>357</v>
       </c>
       <c r="E358">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="359">
@@ -7183,7 +7183,7 @@
         <v>358</v>
       </c>
       <c r="E359">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="360">
@@ -7202,7 +7202,7 @@
         <v>359</v>
       </c>
       <c r="E360">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="361">
@@ -7221,7 +7221,7 @@
         <v>360</v>
       </c>
       <c r="E361">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="362">
@@ -7240,7 +7240,7 @@
         <v>361</v>
       </c>
       <c r="E362">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="363">
@@ -7259,7 +7259,7 @@
         <v>362</v>
       </c>
       <c r="E363">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="364">
@@ -7278,7 +7278,7 @@
         <v>363</v>
       </c>
       <c r="E364">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="365">
@@ -7297,7 +7297,7 @@
         <v>364</v>
       </c>
       <c r="E365">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="366">
@@ -7316,7 +7316,7 @@
         <v>365</v>
       </c>
       <c r="E366">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="367">
@@ -7335,7 +7335,7 @@
         <v>366</v>
       </c>
       <c r="E367">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="368">
@@ -7343,7 +7343,7 @@
         <v>367</v>
       </c>
       <c r="E368">
-        <v>1</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
